--- a/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>WESC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,23 +827,29 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,23 +880,29 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1132,22 +1185,28 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,22 +1238,28 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,11 +1376,17 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1386,22 +1471,28 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1527,22 +1630,28 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,22 +1683,28 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1856,22 +2001,28 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1950,74 +2107,86 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,55 +2433,67 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,10 +3126,10 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2880,19 +3153,25 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2903,10 +3182,10 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2927,19 +3206,25 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3482,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3185,10 +3500,10 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -3209,19 +3524,25 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
       <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3768,14 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3436,10 +3783,10 @@
         <v>-1300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G72" s="3">
         <v>-1200</v>
@@ -3454,10 +3801,10 @@
         <v>-1200</v>
       </c>
       <c r="K72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="L72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="M72" s="3">
         <v>-1100</v>
@@ -3474,8 +3821,14 @@
       <c r="Q72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3624,10 +3995,10 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -3648,10 +4019,10 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -3660,10 +4031,16 @@
         <v>0</v>
       </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3794,22 +4183,28 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>WESC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,23 +847,29 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,23 +906,29 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1191,22 +1245,28 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1244,22 +1304,28 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1382,34 +1456,40 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1438,8 +1518,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1477,22 +1563,28 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1695,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1636,22 +1740,28 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1689,22 +1799,28 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2108,14 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2007,22 +2153,28 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2226,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2113,80 +2271,92 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,19 +2631,25 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2465,35 +2663,41 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3162,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3221,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3385,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3132,10 +3406,10 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3159,19 +3433,25 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3188,10 +3468,10 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -3212,19 +3492,25 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3798,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3506,10 +3822,10 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -3530,19 +3846,25 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
       <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4116,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3789,10 +4137,10 @@
         <v>-1300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I72" s="3">
         <v>-1200</v>
@@ -3807,10 +4155,10 @@
         <v>-1200</v>
       </c>
       <c r="M72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="N72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="O72" s="3">
         <v>-1100</v>
@@ -3827,8 +4175,14 @@
       <c r="S72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4352,14 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4001,10 +4373,10 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -4025,10 +4397,10 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -4037,10 +4409,16 @@
         <v>0</v>
       </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4470,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -4189,22 +4579,28 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>WESC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -853,11 +859,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -865,11 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,11 +921,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -924,11 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,20 +1231,21 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1251,11 +1277,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1265,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,11 +1303,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1310,11 +1339,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1462,19 +1498,22 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1491,8 +1530,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1524,20 +1563,23 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1569,11 +1611,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1583,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,20 +1749,23 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1746,11 +1797,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1760,20 +1811,23 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1805,11 +1859,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1819,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,20 +2183,23 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2159,11 +2231,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2173,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,20 +2307,23 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2277,11 +2355,11 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2291,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2460,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2648,11 +2746,11 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2669,14 +2767,14 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2684,20 +2782,23 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3227,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,13 +3524,16 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -3412,7 +3548,7 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3439,7 +3575,7 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3448,15 +3584,18 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3474,7 +3613,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3498,7 +3637,7 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
@@ -3507,10 +3646,13 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,13 +3958,16 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3828,7 +3985,7 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3852,7 +4009,7 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -3861,10 +4018,13 @@
         <v>0</v>
       </c>
       <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,13 +4292,16 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E72" s="3">
         <v>-1300</v>
@@ -4143,7 +4316,7 @@
         <v>-1300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J72" s="3">
         <v>-1200</v>
@@ -4161,7 +4334,7 @@
         <v>-1200</v>
       </c>
       <c r="O72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="P72" s="3">
         <v>-1100</v>
@@ -4181,8 +4354,11 @@
       <c r="U72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,13 +4540,16 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -4379,7 +4564,7 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -4403,7 +4588,7 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -4415,10 +4600,13 @@
         <v>0</v>
       </c>
       <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,84 +4664,90 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -4585,11 +4779,11 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4599,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>WESC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -862,11 +869,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -874,11 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,11 +934,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -936,11 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,17 +1104,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,23 +1258,24 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>-100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1280,11 +1307,11 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,14 +1333,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1342,11 +1372,11 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,19 +1476,22 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1501,11 +1538,14 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1515,8 +1555,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1533,8 +1573,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1566,23 +1606,26 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1614,11 +1657,11 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,23 +1801,26 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1800,11 +1852,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1814,23 +1866,26 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1862,11 +1917,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,23 +2256,26 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -2234,11 +2307,11 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,23 +2386,26 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -2358,11 +2437,11 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2749,11 +2848,11 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2770,14 +2869,14 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2785,20 +2884,23 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -3551,7 +3688,7 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3578,7 +3715,7 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3587,10 +3724,13 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3616,7 +3756,7 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3640,7 +3780,7 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -3649,10 +3789,13 @@
         <v>0</v>
       </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -3988,7 +4146,7 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -4012,7 +4170,7 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -4021,10 +4179,13 @@
         <v>0</v>
       </c>
       <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,7 +4478,7 @@
         <v>-1200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
@@ -4319,7 +4493,7 @@
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K72" s="3">
         <v>-1200</v>
@@ -4337,7 +4511,7 @@
         <v>-1200</v>
       </c>
       <c r="P72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="Q72" s="3">
         <v>-1100</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4552,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
@@ -4567,7 +4753,7 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -4591,7 +4777,7 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4603,10 +4789,13 @@
         <v>0</v>
       </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,90 +4856,96 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -4782,11 +4977,11 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>WESC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,111 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +833,17 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -872,8 +892,8 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -881,14 +901,23 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +966,8 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -946,14 +975,23 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1015,11 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1083,17 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,26 +1157,35 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1136,14 +1195,14 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1172,8 +1231,17 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1305,17 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1336,11 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,23 +1348,23 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>-100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1310,22 +1390,31 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,23 +1422,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1375,22 +1464,31 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1512,11 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1580,17 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,19 +1598,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1541,11 +1651,20 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1558,14 +1677,14 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1576,14 +1695,14 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1609,8 +1728,17 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,23 +1746,23 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1660,22 +1788,31 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1876,17 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1950,17 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,23 +1968,23 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1855,22 +2010,31 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,23 +2042,23 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1920,22 +2084,31 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2172,17 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2246,17 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2320,17 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2394,17 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2468,17 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,23 +2486,23 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2310,22 +2528,31 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2616,17 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,23 +2634,23 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2440,92 +2676,110 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2803,11 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2831,11 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2639,8 +2899,17 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2973,17 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +3047,17 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3121,17 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2851,8 +3147,8 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2860,8 +3156,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2872,35 +3168,44 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3269,17 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3343,17 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3417,17 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3491,17 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3565,17 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3639,17 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3713,17 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3787,17 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3484,8 +3861,17 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3895,11 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3923,11 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3991,17 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +4065,17 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3676,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3691,13 +4101,13 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -3718,36 +4128,45 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3759,13 +4178,13 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3783,19 +4202,28 @@
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4287,17 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4361,17 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4435,17 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4509,17 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,25 +4583,34 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -4149,13 +4622,13 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -4173,19 +4646,28 @@
         <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4691,11 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4759,17 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4833,17 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4907,17 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,25 +4981,34 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
@@ -4496,13 +5017,13 @@
         <v>-1300</v>
       </c>
       <c r="K72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="L72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="M72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="N72" s="3">
         <v>-1200</v>
@@ -4514,13 +5035,13 @@
         <v>-1200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="R72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="S72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="T72" s="3">
         <v>-1100</v>
@@ -4534,8 +5055,17 @@
       <c r="W72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +5129,17 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5203,17 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +5277,17 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4741,13 +5298,13 @@
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -4756,13 +5313,13 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -4780,22 +5337,31 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
       </c>
       <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5425,96 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,23 +5522,23 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -4980,22 +5564,31 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5612,11 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5680,17 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5754,17 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5828,17 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5902,17 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5976,17 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +6050,17 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +6124,17 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +6158,11 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6226,17 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6300,17 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6374,17 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6448,17 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6482,11 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6550,17 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6624,17 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6698,17 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6772,17 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6846,17 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6920,17 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6992,15 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>WESC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -901,11 +908,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
@@ -913,11 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,11 +985,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
@@ -987,11 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,29 +1183,32 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1204,8 +1224,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1357,17 +1384,17 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>-100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1399,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
@@ -1413,8 +1440,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1431,17 +1461,17 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1473,11 +1503,11 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1600,20 +1637,20 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1660,11 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1686,8 +1726,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1704,8 +1744,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1737,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1755,17 +1798,17 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1797,11 +1840,11 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
@@ -1811,8 +1854,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1977,17 +2029,17 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -2019,11 +2071,11 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
@@ -2033,8 +2085,11 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2051,17 +2106,17 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -2093,11 +2148,11 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,8 +2547,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2495,17 +2568,17 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2537,11 +2610,11 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2643,17 +2722,17 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2685,11 +2764,11 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,37 +3226,40 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -3177,14 +3276,14 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -3192,20 +3291,23 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,13 +4208,16 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -4095,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -4110,7 +4247,7 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -4137,7 +4274,7 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4146,10 +4283,13 @@
         <v>0</v>
       </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4157,7 +4297,7 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -4169,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -4187,7 +4327,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -4211,7 +4351,7 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
         <v>0</v>
@@ -4220,10 +4360,13 @@
         <v>0</v>
       </c>
       <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,7 +4759,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -4613,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -4631,7 +4789,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -4655,7 +4813,7 @@
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X66" s="3">
         <v>0</v>
@@ -4664,10 +4822,13 @@
         <v>0</v>
       </c>
       <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5005,13 +5179,13 @@
         <v>-1300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H72" s="3">
         <v>-1200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J72" s="3">
         <v>-1300</v>
@@ -5026,7 +5200,7 @@
         <v>-1300</v>
       </c>
       <c r="N72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="O72" s="3">
         <v>-1200</v>
@@ -5044,7 +5218,7 @@
         <v>-1200</v>
       </c>
       <c r="T72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="U72" s="3">
         <v>-1100</v>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,13 +5469,16 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -5307,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -5322,7 +5508,7 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
@@ -5346,7 +5532,7 @@
         <v>-100</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W76" s="3">
         <v>0</v>
@@ -5358,10 +5544,13 @@
         <v>0</v>
       </c>
       <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5531,17 +5726,17 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -5573,11 +5768,11 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>WESC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -911,11 +918,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
@@ -923,11 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,11 +998,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
@@ -1000,11 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,21 +1217,21 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1387,17 +1414,17 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1429,11 +1456,11 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1464,17 +1494,17 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1506,11 +1536,11 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,20 +1677,20 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1700,11 +1737,14 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1729,8 +1769,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1747,8 +1787,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1801,17 +1844,17 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1843,11 +1886,11 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2032,17 +2084,17 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -2074,11 +2126,11 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2088,8 +2140,11 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2109,17 +2164,17 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -2151,11 +2206,11 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2571,17 +2644,17 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2613,11 +2686,11 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2725,17 +2804,17 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2767,11 +2846,11 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3255,14 +3354,14 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -3279,14 +3378,14 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
@@ -3294,20 +3393,23 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,7 +4357,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -4235,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -4250,7 +4387,7 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -4277,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4286,10 +4423,13 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4300,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -4312,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -4330,7 +4470,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -4354,7 +4494,7 @@
         <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
         <v>0</v>
@@ -4363,10 +4503,13 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4762,7 +4920,7 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -4774,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -4792,7 +4950,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -4816,7 +4974,7 @@
         <v>100</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y66" s="3">
         <v>0</v>
@@ -4825,10 +4983,13 @@
         <v>0</v>
       </c>
       <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5182,13 +5356,13 @@
         <v>-1300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I72" s="3">
         <v>-1200</v>
       </c>
       <c r="J72" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K72" s="3">
         <v>-1300</v>
@@ -5203,7 +5377,7 @@
         <v>-1300</v>
       </c>
       <c r="O72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="P72" s="3">
         <v>-1200</v>
@@ -5221,7 +5395,7 @@
         <v>-1200</v>
       </c>
       <c r="U72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="V72" s="3">
         <v>-1100</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,7 +5667,7 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -5496,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -5511,7 +5697,7 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -5535,7 +5721,7 @@
         <v>-100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X76" s="3">
         <v>0</v>
@@ -5547,10 +5733,13 @@
         <v>0</v>
       </c>
       <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5729,17 +5924,17 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -5771,11 +5966,11 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>WESC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -921,23 +934,29 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
+      <c r="Z9" s="3">
+        <v>0</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,23 +1020,29 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
+      <c r="Z10" s="3">
+        <v>0</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,38 +1239,44 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1250,11 +1289,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1417,20 +1470,20 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>-100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1459,22 +1512,28 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1497,20 +1556,20 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1539,22 +1598,28 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1680,23 +1753,23 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1740,11 +1813,17 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1772,11 +1851,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1790,11 +1869,11 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1823,8 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1847,20 +1932,20 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1889,22 +1974,28 @@
         <v>0</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2087,20 +2190,20 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -2129,22 +2232,28 @@
         <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2167,20 +2276,20 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -2209,22 +2318,28 @@
         <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,8 +2762,14 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2647,20 +2792,20 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2689,22 +2834,28 @@
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2807,20 +2964,20 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2849,107 +3006,119 @@
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3357,8 +3554,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3366,8 +3563,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -3381,35 +3578,41 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4293,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4128,8 +4379,14 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4615,14 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4360,10 +4633,10 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -4375,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -4390,10 +4663,10 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -4417,19 +4690,25 @@
         <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4443,10 +4722,10 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -4455,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -4473,10 +4752,10 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -4497,19 +4776,25 @@
         <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
       </c>
       <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5217,14 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4923,10 +5238,10 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -4935,10 +5250,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -4953,10 +5268,10 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
@@ -4977,19 +5292,25 @@
         <v>100</v>
       </c>
       <c r="Y66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA66" s="3">
         <v>0</v>
       </c>
       <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,13 +5679,19 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E72" s="3">
         <v>-1300</v>
@@ -5359,16 +5706,16 @@
         <v>-1300</v>
       </c>
       <c r="I72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1300</v>
       </c>
       <c r="M72" s="3">
         <v>-1300</v>
@@ -5380,10 +5727,10 @@
         <v>-1300</v>
       </c>
       <c r="P72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="Q72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="R72" s="3">
         <v>-1200</v>
@@ -5398,10 +5745,10 @@
         <v>-1200</v>
       </c>
       <c r="V72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="W72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="X72" s="3">
         <v>-1100</v>
@@ -5418,8 +5765,14 @@
       <c r="AB72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +6023,14 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5670,10 +6041,10 @@
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -5685,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -5700,10 +6071,10 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -5724,10 +6095,10 @@
         <v>-100</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z76" s="3">
         <v>0</v>
@@ -5736,10 +6107,16 @@
         <v>0</v>
       </c>
       <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5927,20 +6316,20 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -5969,22 +6358,28 @@
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WESC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>WESC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -940,11 +947,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>4</v>
@@ -952,11 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,11 +1036,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>4</v>
@@ -1038,11 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,8 +1276,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1265,21 +1285,21 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1295,8 +1315,8 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1476,17 +1503,17 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1518,11 +1545,11 @@
         <v>0</v>
       </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
@@ -1532,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1562,17 +1592,17 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1604,11 +1634,11 @@
         <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1759,20 +1796,20 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1819,11 +1856,14 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1857,8 +1897,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1875,8 +1915,8 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1938,17 +1981,17 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1980,11 +2023,11 @@
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
@@ -1994,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2196,17 +2248,17 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -2238,11 +2290,11 @@
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
@@ -2252,8 +2304,11 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2282,17 +2337,17 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -2324,11 +2379,11 @@
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2798,17 +2871,17 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2840,11 +2913,11 @@
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2970,17 +3049,17 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -3012,11 +3091,11 @@
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3560,14 +3659,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -3584,14 +3683,14 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
@@ -3599,20 +3698,23 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
+      <c r="AC45" s="3">
+        <v>0</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4639,7 +4776,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -4654,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -4669,7 +4806,7 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -4696,7 +4833,7 @@
         <v>100</v>
       </c>
       <c r="AA59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
@@ -4705,10 +4842,13 @@
         <v>0</v>
       </c>
       <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4728,7 +4868,7 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -4740,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -4758,7 +4898,7 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -4782,7 +4922,7 @@
         <v>100</v>
       </c>
       <c r="AA60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB60" s="3">
         <v>0</v>
@@ -4791,10 +4931,13 @@
         <v>0</v>
       </c>
       <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5244,7 +5402,7 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -5256,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -5274,7 +5432,7 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -5298,7 +5456,7 @@
         <v>100</v>
       </c>
       <c r="AA66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB66" s="3">
         <v>0</v>
@@ -5307,10 +5465,13 @@
         <v>0</v>
       </c>
       <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5694,7 +5868,7 @@
         <v>-1400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
@@ -5712,13 +5886,13 @@
         <v>-1300</v>
       </c>
       <c r="K72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="L72" s="3">
         <v>-1200</v>
       </c>
       <c r="M72" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="N72" s="3">
         <v>-1300</v>
@@ -5733,7 +5907,7 @@
         <v>-1300</v>
       </c>
       <c r="R72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="S72" s="3">
         <v>-1200</v>
@@ -5751,7 +5925,7 @@
         <v>-1200</v>
       </c>
       <c r="X72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="Y72" s="3">
         <v>-1100</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6047,7 +6233,7 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -6062,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -6077,7 +6263,7 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
@@ -6101,7 +6287,7 @@
         <v>-100</v>
       </c>
       <c r="Z76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA76" s="3">
         <v>0</v>
@@ -6113,10 +6299,13 @@
         <v>0</v>
       </c>
       <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6322,17 +6517,17 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -6364,11 +6559,11 @@
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
